--- a/datos punto 1.xlsx
+++ b/datos punto 1.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVINSTEVEN\Documents\GitHub\Taller2_Aplicada3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sotom\Documents\GitHub\Taller2_Aplicada3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B6215-2924-4D5D-9374-3B4CBF218B0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="8220"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Punto 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Punto 3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>Lingote</t>
   </si>
@@ -78,12 +86,42 @@
   </si>
   <si>
     <t>CV(%)</t>
+  </si>
+  <si>
+    <t>Operario</t>
+  </si>
+  <si>
+    <t>Maquina</t>
+  </si>
+  <si>
+    <t>Ruptura</t>
+  </si>
+  <si>
+    <t>1Maquina</t>
+  </si>
+  <si>
+    <t>2Maquina</t>
+  </si>
+  <si>
+    <t>3Maquina</t>
+  </si>
+  <si>
+    <t>4Maquina</t>
+  </si>
+  <si>
+    <t>1operario</t>
+  </si>
+  <si>
+    <t>2operario</t>
+  </si>
+  <si>
+    <t>3operario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -124,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,6 +174,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +459,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +616,7 @@
         <v>6.1378606479239437</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M8" si="0">(L5/I5)*100</f>
+        <f t="shared" ref="M5:M6" si="0">(L5/I5)*100</f>
         <v>8.0867729221659346</v>
       </c>
     </row>
@@ -830,4 +874,295 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9B3002-D891-4CFF-BF68-B881A4A5A548}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>